--- a/data_created/highrisk-medicare-among-deaths-state-average.xlsx
+++ b/data_created/highrisk-medicare-among-deaths-state-average.xlsx
@@ -533,16 +533,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>0.95093212585548</v>
+        <v>0.966817792541496</v>
       </c>
       <c r="C2" t="n">
-        <v>0.883419995164695</v>
+        <v>0.893308662719607</v>
       </c>
       <c r="D2" t="n">
-        <v>0.646163269130077</v>
+        <v>0.584985586569476</v>
       </c>
       <c r="E2" t="n">
-        <v>0.40827297911006</v>
+        <v>0.296999999832692</v>
       </c>
     </row>
     <row r="3">
@@ -550,16 +550,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>0.8918687215435</v>
+        <v>0.919690806927313</v>
       </c>
       <c r="C3" t="n">
-        <v>0.731443509432128</v>
+        <v>0.7274036492185</v>
       </c>
       <c r="D3" t="n">
-        <v>0.311558463744912</v>
+        <v>0.211182613370219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0928669437601166</v>
+        <v>0.0318949666208082</v>
       </c>
     </row>
     <row r="4">
@@ -567,16 +567,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0.946350577409129</v>
+        <v>0.967698182118381</v>
       </c>
       <c r="C4" t="n">
-        <v>0.864856764484942</v>
+        <v>0.884062713988888</v>
       </c>
       <c r="D4" t="n">
-        <v>0.57748332666776</v>
+        <v>0.51440683255644</v>
       </c>
       <c r="E4" t="n">
-        <v>0.314004056780267</v>
+        <v>0.204280056564527</v>
       </c>
     </row>
     <row r="5">
@@ -584,16 +584,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="n">
-        <v>0.942366320486331</v>
+        <v>0.96149581434523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.858736028526324</v>
+        <v>0.870539454458683</v>
       </c>
       <c r="D5" t="n">
-        <v>0.57643522508283</v>
+        <v>0.508864582772957</v>
       </c>
       <c r="E5" t="n">
-        <v>0.32440887872658</v>
+        <v>0.221856729679785</v>
       </c>
     </row>
     <row r="6">
@@ -601,16 +601,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>0.957876985269086</v>
+        <v>0.975960680252197</v>
       </c>
       <c r="C6" t="n">
-        <v>0.895291797341223</v>
+        <v>0.916588690371036</v>
       </c>
       <c r="D6" t="n">
-        <v>0.664033124017551</v>
+        <v>0.633780937303272</v>
       </c>
       <c r="E6" t="n">
-        <v>0.423514374645625</v>
+        <v>0.335309556593029</v>
       </c>
     </row>
     <row r="7">
@@ -618,16 +618,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="n">
-        <v>0.899475061509618</v>
+        <v>0.922424572474048</v>
       </c>
       <c r="C7" t="n">
-        <v>0.77124944496534</v>
+        <v>0.772863238082313</v>
       </c>
       <c r="D7" t="n">
-        <v>0.432605034747905</v>
+        <v>0.360351563726806</v>
       </c>
       <c r="E7" t="n">
-        <v>0.205736983177527</v>
+        <v>0.130819410340778</v>
       </c>
     </row>
     <row r="8">
@@ -635,16 +635,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="n">
-        <v>0.928646441365574</v>
+        <v>0.947296209112797</v>
       </c>
       <c r="C8" t="n">
-        <v>0.840594030358794</v>
+        <v>0.847810484166333</v>
       </c>
       <c r="D8" t="n">
-        <v>0.565625429827791</v>
+        <v>0.494485378656497</v>
       </c>
       <c r="E8" t="n">
-        <v>0.324101594038326</v>
+        <v>0.215296478222733</v>
       </c>
     </row>
     <row r="9">
@@ -652,16 +652,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="n">
-        <v>0.920750666928576</v>
+        <v>0.937765814921854</v>
       </c>
       <c r="C9" t="n">
-        <v>0.82143904310693</v>
+        <v>0.817919633035557</v>
       </c>
       <c r="D9" t="n">
-        <v>0.521189630322175</v>
+        <v>0.424406085295198</v>
       </c>
       <c r="E9" t="n">
-        <v>0.277278378077139</v>
+        <v>0.160883337220729</v>
       </c>
     </row>
     <row r="10">
@@ -669,16 +669,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="n">
-        <v>0.98395121087209</v>
+        <v>0.988227156408555</v>
       </c>
       <c r="C10" t="n">
-        <v>0.952109496099021</v>
+        <v>0.958443554017704</v>
       </c>
       <c r="D10" t="n">
-        <v>0.790768078457485</v>
+        <v>0.782134236066716</v>
       </c>
       <c r="E10" t="n">
-        <v>0.563999706166376</v>
+        <v>0.523181568917206</v>
       </c>
     </row>
     <row r="11">
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="n">
-        <v>0.953257294492679</v>
+        <v>0.967620770835781</v>
       </c>
       <c r="C11" t="n">
-        <v>0.891627880333218</v>
+        <v>0.901215388289311</v>
       </c>
       <c r="D11" t="n">
-        <v>0.676140961169091</v>
+        <v>0.627650744781192</v>
       </c>
       <c r="E11" t="n">
-        <v>0.452823023606334</v>
+        <v>0.354631998553338</v>
       </c>
     </row>
     <row r="12">
@@ -703,16 +703,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="n">
-        <v>0.951249239865935</v>
+        <v>0.969048869019999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.881676681789763</v>
+        <v>0.89743074638932</v>
       </c>
       <c r="D12" t="n">
-        <v>0.636842915566823</v>
+        <v>0.592405843268542</v>
       </c>
       <c r="E12" t="n">
-        <v>0.395196152898176</v>
+        <v>0.301973257468215</v>
       </c>
     </row>
     <row r="13">
@@ -720,16 +720,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="n">
-        <v>0.933848235102681</v>
+        <v>0.959259083655129</v>
       </c>
       <c r="C13" t="n">
-        <v>0.838212746288375</v>
+        <v>0.859802242608444</v>
       </c>
       <c r="D13" t="n">
-        <v>0.524684603125145</v>
+        <v>0.45949791657163</v>
       </c>
       <c r="E13" t="n">
-        <v>0.263623515360341</v>
+        <v>0.1626410563847</v>
       </c>
     </row>
     <row r="14">
@@ -737,16 +737,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="n">
-        <v>0.890906041341418</v>
+        <v>0.912219683163776</v>
       </c>
       <c r="C14" t="n">
-        <v>0.742089642843834</v>
+        <v>0.724249175069042</v>
       </c>
       <c r="D14" t="n">
-        <v>0.356628407147735</v>
+        <v>0.238062448920621</v>
       </c>
       <c r="E14" t="n">
-        <v>0.133101084538792</v>
+        <v>0.0488707424074325</v>
       </c>
     </row>
     <row r="15">
@@ -754,16 +754,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="n">
-        <v>0.940357782487487</v>
+        <v>0.958251568358937</v>
       </c>
       <c r="C15" t="n">
-        <v>0.863281314181758</v>
+        <v>0.875265260847593</v>
       </c>
       <c r="D15" t="n">
-        <v>0.611852552150109</v>
+        <v>0.564464818292818</v>
       </c>
       <c r="E15" t="n">
-        <v>0.37697803078182</v>
+        <v>0.290736339421869</v>
       </c>
     </row>
     <row r="16">
@@ -771,16 +771,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="n">
-        <v>0.928529268098277</v>
+        <v>0.946045661634544</v>
       </c>
       <c r="C16" t="n">
-        <v>0.835788384053827</v>
+        <v>0.836254446562586</v>
       </c>
       <c r="D16" t="n">
-        <v>0.549198657011177</v>
+        <v>0.463891749770764</v>
       </c>
       <c r="E16" t="n">
-        <v>0.308562223162844</v>
+        <v>0.199710949736978</v>
       </c>
     </row>
     <row r="17">
@@ -788,16 +788,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="n">
-        <v>0.886482666314745</v>
+        <v>0.90363865165016</v>
       </c>
       <c r="C17" t="n">
-        <v>0.753321850083162</v>
+        <v>0.734308986327845</v>
       </c>
       <c r="D17" t="n">
-        <v>0.402225402060023</v>
+        <v>0.282050474396961</v>
       </c>
       <c r="E17" t="n">
-        <v>0.172120084995487</v>
+        <v>0.0704404235784649</v>
       </c>
     </row>
     <row r="18">
@@ -805,16 +805,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="n">
-        <v>0.907263297646937</v>
+        <v>0.925036348492397</v>
       </c>
       <c r="C18" t="n">
-        <v>0.797256652622127</v>
+        <v>0.79149611071681</v>
       </c>
       <c r="D18" t="n">
-        <v>0.486785008546341</v>
+        <v>0.391796798922505</v>
       </c>
       <c r="E18" t="n">
-        <v>0.252772135560131</v>
+        <v>0.148366607425798</v>
       </c>
     </row>
     <row r="19">
@@ -822,16 +822,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="n">
-        <v>0.938838172050602</v>
+        <v>0.957381150247086</v>
       </c>
       <c r="C19" t="n">
-        <v>0.851629167274932</v>
+        <v>0.855842890735909</v>
       </c>
       <c r="D19" t="n">
-        <v>0.558809072754758</v>
+        <v>0.455796752262887</v>
       </c>
       <c r="E19" t="n">
-        <v>0.30015421437459</v>
+        <v>0.162838023869053</v>
       </c>
     </row>
     <row r="20">
@@ -839,16 +839,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="n">
-        <v>0.959603371305015</v>
+        <v>0.975928937846249</v>
       </c>
       <c r="C20" t="n">
-        <v>0.901511187973015</v>
+        <v>0.919277502372317</v>
       </c>
       <c r="D20" t="n">
-        <v>0.683465720791139</v>
+        <v>0.648883215002073</v>
       </c>
       <c r="E20" t="n">
-        <v>0.447157607271268</v>
+        <v>0.353123550451293</v>
       </c>
     </row>
     <row r="21">
@@ -856,16 +856,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="n">
-        <v>0.884793613086369</v>
+        <v>0.904399174743538</v>
       </c>
       <c r="C21" t="n">
-        <v>0.740011036686251</v>
+        <v>0.718967776890331</v>
       </c>
       <c r="D21" t="n">
-        <v>0.365707828030533</v>
+        <v>0.240193298194484</v>
       </c>
       <c r="E21" t="n">
-        <v>0.14049495386458</v>
+        <v>0.0486131668129673</v>
       </c>
     </row>
     <row r="22">
@@ -873,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="n">
-        <v>0.940885589405758</v>
+        <v>0.955554705180873</v>
       </c>
       <c r="C22" t="n">
-        <v>0.867426123254709</v>
+        <v>0.874928348732178</v>
       </c>
       <c r="D22" t="n">
-        <v>0.629243794763325</v>
+        <v>0.583470561392379</v>
       </c>
       <c r="E22" t="n">
-        <v>0.401771240538687</v>
+        <v>0.318247605859147</v>
       </c>
     </row>
     <row r="23">
@@ -890,16 +890,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="n">
-        <v>0.91426417519972</v>
+        <v>0.932525596361294</v>
       </c>
       <c r="C23" t="n">
-        <v>0.81116930131383</v>
+        <v>0.810279176060404</v>
       </c>
       <c r="D23" t="n">
-        <v>0.511795545530917</v>
+        <v>0.427446499530605</v>
       </c>
       <c r="E23" t="n">
-        <v>0.275637711451808</v>
+        <v>0.174195954956821</v>
       </c>
     </row>
     <row r="24">
@@ -907,16 +907,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="n">
-        <v>0.932145906776135</v>
+        <v>0.947183440535729</v>
       </c>
       <c r="C24" t="n">
-        <v>0.846997135046329</v>
+        <v>0.844365613039134</v>
       </c>
       <c r="D24" t="n">
-        <v>0.583245960951324</v>
+        <v>0.497705718972695</v>
       </c>
       <c r="E24" t="n">
-        <v>0.354505255256922</v>
+        <v>0.243161072526148</v>
       </c>
     </row>
     <row r="25">
@@ -924,16 +924,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="n">
-        <v>0.881947244138106</v>
+        <v>0.902780968562746</v>
       </c>
       <c r="C25" t="n">
-        <v>0.741541826786831</v>
+        <v>0.729067526468771</v>
       </c>
       <c r="D25" t="n">
-        <v>0.380343317940039</v>
+        <v>0.275662643005539</v>
       </c>
       <c r="E25" t="n">
-        <v>0.155289331313542</v>
+        <v>0.0695438082440016</v>
       </c>
     </row>
     <row r="26">
@@ -941,16 +941,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="n">
-        <v>0.957980798152377</v>
+        <v>0.974508878224826</v>
       </c>
       <c r="C26" t="n">
-        <v>0.897285887812872</v>
+        <v>0.914972383100543</v>
       </c>
       <c r="D26" t="n">
-        <v>0.672638350963289</v>
+        <v>0.638218770811151</v>
       </c>
       <c r="E26" t="n">
-        <v>0.435062967915182</v>
+        <v>0.346199284268555</v>
       </c>
     </row>
     <row r="27">
@@ -958,16 +958,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="n">
-        <v>0.928859798620108</v>
+        <v>0.946736023881062</v>
       </c>
       <c r="C27" t="n">
-        <v>0.836076951605756</v>
+        <v>0.837583238786676</v>
       </c>
       <c r="D27" t="n">
-        <v>0.545952106891474</v>
+        <v>0.458310126767143</v>
       </c>
       <c r="E27" t="n">
-        <v>0.301956954128972</v>
+        <v>0.190738059135118</v>
       </c>
     </row>
     <row r="28">
@@ -975,16 +975,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="n">
-        <v>0.874374161177269</v>
+        <v>0.897331208873243</v>
       </c>
       <c r="C28" t="n">
-        <v>0.709500778786318</v>
+        <v>0.691923088574233</v>
       </c>
       <c r="D28" t="n">
-        <v>0.318751072897459</v>
+        <v>0.216828266125095</v>
       </c>
       <c r="E28" t="n">
-        <v>0.11518505572306</v>
+        <v>0.0471340124920385</v>
       </c>
     </row>
     <row r="29">
@@ -992,16 +992,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="n">
-        <v>0.892760616031874</v>
+        <v>0.91274005649211</v>
       </c>
       <c r="C29" t="n">
-        <v>0.764424248070756</v>
+        <v>0.754547632928866</v>
       </c>
       <c r="D29" t="n">
-        <v>0.417643707984601</v>
+        <v>0.309328477901705</v>
       </c>
       <c r="E29" t="n">
-        <v>0.183027756081255</v>
+        <v>0.0838624431102125</v>
       </c>
     </row>
     <row r="30">
@@ -1009,16 +1009,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="n">
-        <v>0.955059139748006</v>
+        <v>0.976070582671875</v>
       </c>
       <c r="C30" t="n">
-        <v>0.881701522743733</v>
+        <v>0.905950065437401</v>
       </c>
       <c r="D30" t="n">
-        <v>0.60771110434681</v>
+        <v>0.556329352719178</v>
       </c>
       <c r="E30" t="n">
-        <v>0.342429883947795</v>
+        <v>0.231833608409257</v>
       </c>
     </row>
     <row r="31">
@@ -1026,16 +1026,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>0.859845690878336</v>
+        <v>0.875704555382598</v>
       </c>
       <c r="C31" t="n">
-        <v>0.695774684183602</v>
+        <v>0.661156629633053</v>
       </c>
       <c r="D31" t="n">
-        <v>0.309175709335063</v>
+        <v>0.18554087292582</v>
       </c>
       <c r="E31" t="n">
-        <v>0.104858960947382</v>
+        <v>0.030740884870696</v>
       </c>
     </row>
     <row r="32">
@@ -1043,16 +1043,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>0.940092849479918</v>
+        <v>0.955525811468161</v>
       </c>
       <c r="C32" t="n">
-        <v>0.866825926078588</v>
+        <v>0.87448397227179</v>
       </c>
       <c r="D32" t="n">
-        <v>0.628805155174906</v>
+        <v>0.575624914173074</v>
       </c>
       <c r="E32" t="n">
-        <v>0.400755309907523</v>
+        <v>0.306448786346713</v>
       </c>
     </row>
     <row r="33">
@@ -1060,16 +1060,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>0.956610244264346</v>
+        <v>0.976193373324002</v>
       </c>
       <c r="C33" t="n">
-        <v>0.888983137451205</v>
+        <v>0.914741822758933</v>
       </c>
       <c r="D33" t="n">
-        <v>0.636778895338237</v>
+        <v>0.614657375837852</v>
       </c>
       <c r="E33" t="n">
-        <v>0.381890015324973</v>
+        <v>0.302394474824809</v>
       </c>
     </row>
     <row r="34">
@@ -1077,16 +1077,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="n">
-        <v>0.95045366128488</v>
+        <v>0.965835579071206</v>
       </c>
       <c r="C34" t="n">
-        <v>0.885826344476593</v>
+        <v>0.897904747656214</v>
       </c>
       <c r="D34" t="n">
-        <v>0.663715385401715</v>
+        <v>0.624212819204154</v>
       </c>
       <c r="E34" t="n">
-        <v>0.438699622738217</v>
+        <v>0.354229538715618</v>
       </c>
     </row>
     <row r="35">
@@ -1094,16 +1094,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="n">
-        <v>0.945181562760809</v>
+        <v>0.963593322408334</v>
       </c>
       <c r="C35" t="n">
-        <v>0.868644553371931</v>
+        <v>0.881072999822109</v>
       </c>
       <c r="D35" t="n">
-        <v>0.610775369204181</v>
+        <v>0.551679642770457</v>
       </c>
       <c r="E35" t="n">
-        <v>0.370191602451544</v>
+        <v>0.267289802945477</v>
       </c>
     </row>
     <row r="36">
@@ -1111,16 +1111,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="n">
-        <v>0.891875502081386</v>
+        <v>0.908648520864565</v>
       </c>
       <c r="C36" t="n">
-        <v>0.766227336071609</v>
+        <v>0.749997260704429</v>
       </c>
       <c r="D36" t="n">
-        <v>0.427329858744674</v>
+        <v>0.31061086318466</v>
       </c>
       <c r="E36" t="n">
-        <v>0.193613640358105</v>
+        <v>0.0862392811174852</v>
       </c>
     </row>
     <row r="37">
@@ -1128,16 +1128,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="n">
-        <v>0.933741230668356</v>
+        <v>0.951994434998097</v>
       </c>
       <c r="C37" t="n">
-        <v>0.847107980533468</v>
+        <v>0.853350063210115</v>
       </c>
       <c r="D37" t="n">
-        <v>0.569995975604155</v>
+        <v>0.496472862899741</v>
       </c>
       <c r="E37" t="n">
-        <v>0.325632315115891</v>
+        <v>0.219256641392608</v>
       </c>
     </row>
     <row r="38">
@@ -1145,16 +1145,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="n">
-        <v>0.940881265794639</v>
+        <v>0.958784174555761</v>
       </c>
       <c r="C38" t="n">
-        <v>0.858833582267063</v>
+        <v>0.866700786593034</v>
       </c>
       <c r="D38" t="n">
-        <v>0.582371867185969</v>
+        <v>0.502529074582536</v>
       </c>
       <c r="E38" t="n">
-        <v>0.329375947202108</v>
+        <v>0.207645400649768</v>
       </c>
     </row>
     <row r="39">
@@ -1162,16 +1162,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="n">
-        <v>0.917752291003718</v>
+        <v>0.944141220814485</v>
       </c>
       <c r="C39" t="n">
-        <v>0.795015105131683</v>
+        <v>0.806394795513822</v>
       </c>
       <c r="D39" t="n">
-        <v>0.428471644333138</v>
+        <v>0.339110724715792</v>
       </c>
       <c r="E39" t="n">
-        <v>0.176403663835737</v>
+        <v>0.0859356756796731</v>
       </c>
     </row>
     <row r="40">
@@ -1179,16 +1179,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>0.919575322680806</v>
+        <v>0.935226528278311</v>
       </c>
       <c r="C40" t="n">
-        <v>0.823197551801003</v>
+        <v>0.81873593979017</v>
       </c>
       <c r="D40" t="n">
-        <v>0.537462460493394</v>
+        <v>0.449249541656059</v>
       </c>
       <c r="E40" t="n">
-        <v>0.303701810596866</v>
+        <v>0.198796804292129</v>
       </c>
     </row>
     <row r="41">
@@ -1196,16 +1196,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="n">
-        <v>0.932843252497062</v>
+        <v>0.950403770486075</v>
       </c>
       <c r="C41" t="n">
-        <v>0.849647529085949</v>
+        <v>0.857333247582139</v>
       </c>
       <c r="D41" t="n">
-        <v>0.589211386968391</v>
+        <v>0.529505466967136</v>
       </c>
       <c r="E41" t="n">
-        <v>0.355213182862891</v>
+        <v>0.256941179329393</v>
       </c>
     </row>
     <row r="42">
@@ -1213,16 +1213,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="n">
-        <v>0.942611551068709</v>
+        <v>0.961456507874698</v>
       </c>
       <c r="C42" t="n">
-        <v>0.860901495837062</v>
+        <v>0.872809620910435</v>
       </c>
       <c r="D42" t="n">
-        <v>0.588354472607546</v>
+        <v>0.526657313337644</v>
       </c>
       <c r="E42" t="n">
-        <v>0.343102846815433</v>
+        <v>0.244132070491811</v>
       </c>
     </row>
     <row r="43">
@@ -1230,16 +1230,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="n">
-        <v>0.88978663993097</v>
+        <v>0.907353075411862</v>
       </c>
       <c r="C43" t="n">
-        <v>0.755312898995815</v>
+        <v>0.737785420397991</v>
       </c>
       <c r="D43" t="n">
-        <v>0.402865783305051</v>
+        <v>0.290389244830565</v>
       </c>
       <c r="E43" t="n">
-        <v>0.175536151607301</v>
+        <v>0.0796056363899287</v>
       </c>
     </row>
     <row r="44">
@@ -1247,16 +1247,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="n">
-        <v>0.938793702498099</v>
+        <v>0.957627685870134</v>
       </c>
       <c r="C44" t="n">
-        <v>0.852657234281151</v>
+        <v>0.859647989955396</v>
       </c>
       <c r="D44" t="n">
-        <v>0.567885917760208</v>
+        <v>0.486529442605217</v>
       </c>
       <c r="E44" t="n">
-        <v>0.31673084057516</v>
+        <v>0.205070127497966</v>
       </c>
     </row>
     <row r="45">
@@ -1264,16 +1264,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="n">
-        <v>0.957187300422497</v>
+        <v>0.972888464239402</v>
       </c>
       <c r="C45" t="n">
-        <v>0.896394832884945</v>
+        <v>0.911801389343149</v>
       </c>
       <c r="D45" t="n">
-        <v>0.675604133972778</v>
+        <v>0.639795127491623</v>
       </c>
       <c r="E45" t="n">
-        <v>0.443524077349868</v>
+        <v>0.353426469696419</v>
       </c>
     </row>
     <row r="46">
@@ -1281,16 +1281,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="n">
-        <v>0.884551635622701</v>
+        <v>0.904995459277873</v>
       </c>
       <c r="C46" t="n">
-        <v>0.735899879162818</v>
+        <v>0.715488052117734</v>
       </c>
       <c r="D46" t="n">
-        <v>0.352331872352239</v>
+        <v>0.228713125026319</v>
       </c>
       <c r="E46" t="n">
-        <v>0.127510566998894</v>
+        <v>0.0420365123887735</v>
       </c>
     </row>
     <row r="47">
@@ -1298,16 +1298,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="n">
-        <v>0.858679164381235</v>
+        <v>0.878069863206414</v>
       </c>
       <c r="C47" t="n">
-        <v>0.683290728319002</v>
+        <v>0.651428403703649</v>
       </c>
       <c r="D47" t="n">
-        <v>0.278838206305239</v>
+        <v>0.161812694473822</v>
       </c>
       <c r="E47" t="n">
-        <v>0.0836644728568216</v>
+        <v>0.0221476380439832</v>
       </c>
     </row>
     <row r="48">
@@ -1315,16 +1315,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="n">
-        <v>0.922457781949436</v>
+        <v>0.940114490145502</v>
       </c>
       <c r="C48" t="n">
-        <v>0.826499906852156</v>
+        <v>0.828192713875771</v>
       </c>
       <c r="D48" t="n">
-        <v>0.541508091303854</v>
+        <v>0.467407800339511</v>
       </c>
       <c r="E48" t="n">
-        <v>0.309058175783636</v>
+        <v>0.214253701827007</v>
       </c>
     </row>
     <row r="49">
@@ -1332,16 +1332,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="n">
-        <v>0.899065932808943</v>
+        <v>0.923867619762656</v>
       </c>
       <c r="C49" t="n">
-        <v>0.762719712780497</v>
+        <v>0.760946181018884</v>
       </c>
       <c r="D49" t="n">
-        <v>0.390761652373348</v>
+        <v>0.289980966422097</v>
       </c>
       <c r="E49" t="n">
-        <v>0.156107130293518</v>
+        <v>0.0717323919720419</v>
       </c>
     </row>
     <row r="50">
@@ -1349,16 +1349,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="n">
-        <v>0.930468442902998</v>
+        <v>0.946818171036012</v>
       </c>
       <c r="C50" t="n">
-        <v>0.834638710183517</v>
+        <v>0.826258932428088</v>
       </c>
       <c r="D50" t="n">
-        <v>0.527424641779668</v>
+        <v>0.397656477588727</v>
       </c>
       <c r="E50" t="n">
-        <v>0.27137568477305</v>
+        <v>0.125206397620568</v>
       </c>
     </row>
     <row r="51">
@@ -1366,16 +1366,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="n">
-        <v>0.896814353041705</v>
+        <v>0.913713855881119</v>
       </c>
       <c r="C51" t="n">
-        <v>0.772096701169856</v>
+        <v>0.75627846775342</v>
       </c>
       <c r="D51" t="n">
-        <v>0.440615274999367</v>
+        <v>0.33939357519954</v>
       </c>
       <c r="E51" t="n">
-        <v>0.216504166211804</v>
+        <v>0.127829024311818</v>
       </c>
     </row>
     <row r="52">
@@ -1383,16 +1383,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="n">
-        <v>0.857330332598874</v>
+        <v>0.879443045320427</v>
       </c>
       <c r="C52" t="n">
-        <v>0.684287100167845</v>
+        <v>0.660719970715417</v>
       </c>
       <c r="D52" t="n">
-        <v>0.287577823562131</v>
+        <v>0.179995756591528</v>
       </c>
       <c r="E52" t="n">
-        <v>0.0914882698629484</v>
+        <v>0.0292049872495772</v>
       </c>
     </row>
   </sheetData>
